--- a/excel/section.xlsx
+++ b/excel/section.xlsx
@@ -4,11 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="G22" sheetId="1" r:id="rId1"/>
+    <sheet name="V21" sheetId="4" r:id="rId1"/>
     <sheet name="schedule" sheetId="3" r:id="rId2"/>
+    <sheet name="V22" sheetId="5" r:id="rId3"/>
+    <sheet name="K21" sheetId="6" r:id="rId4"/>
+    <sheet name="K22" sheetId="7" r:id="rId5"/>
+    <sheet name="F21" sheetId="8" r:id="rId6"/>
+    <sheet name="F22" sheetId="9" r:id="rId7"/>
+    <sheet name="G21" sheetId="10" r:id="rId8"/>
+    <sheet name="G22" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>student number</t>
   </si>
@@ -40,7 +47,7 @@
     <t>t607</t>
   </si>
   <si>
-    <t>Thursday</t>
+    <t>Monday</t>
   </si>
 </sst>
 </file>
@@ -62,12 +69,30 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,11 +107,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -369,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -386,68 +424,29 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>201710019</v>
+      <c r="A2" s="4">
+        <v>201511281</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>201710338</v>
+      <c r="A3" s="4">
+        <v>201511438</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>201710050</v>
+      <c r="A4" s="4">
+        <v>201411491</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>201710384</v>
+      <c r="A5" s="4">
+        <v>201410679</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>201710054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+      <c r="A6" s="5">
+        <v>201411851</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -458,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,14 +487,389 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.375</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.45833333333333331</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>201410215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>201420096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>201512590</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>201411823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>201410617</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>201311694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>201311355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>201412123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>201420066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>201412338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>201412224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>201410821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>201410704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>201412670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>201210843</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>201310916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>201512691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>201410367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>201310584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>201710117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>201710447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>201710074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>201710424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>201710100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>201710453</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>201710365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>201011240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>201710347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>201710362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>201710368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>201710019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>201710338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>201710050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>201710384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>201710054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/section.xlsx
+++ b/excel/section.xlsx
@@ -7,13 +7,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="V21" sheetId="4" r:id="rId1"/>
+    <sheet name="F22" sheetId="9" r:id="rId1"/>
     <sheet name="schedule" sheetId="3" r:id="rId2"/>
-    <sheet name="V22" sheetId="5" r:id="rId3"/>
-    <sheet name="K21" sheetId="6" r:id="rId4"/>
-    <sheet name="K22" sheetId="7" r:id="rId5"/>
-    <sheet name="F21" sheetId="8" r:id="rId6"/>
-    <sheet name="F22" sheetId="9" r:id="rId7"/>
+    <sheet name="F21" sheetId="8" r:id="rId3"/>
+    <sheet name="K22" sheetId="7" r:id="rId4"/>
+    <sheet name="K21" sheetId="6" r:id="rId5"/>
+    <sheet name="V22" sheetId="5" r:id="rId6"/>
+    <sheet name="V21" sheetId="4" r:id="rId7"/>
     <sheet name="G21" sheetId="10" r:id="rId8"/>
     <sheet name="G22" sheetId="1" r:id="rId9"/>
   </sheets>
@@ -47,7 +47,7 @@
     <t>t607</t>
   </si>
   <si>
-    <t>Monday</t>
+    <t>Wednesday</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -424,28 +424,28 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>201511281</v>
+      <c r="A2" s="9">
+        <v>201710447</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>201511438</v>
+      <c r="A3" s="9">
+        <v>201710074</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>201411491</v>
+      <c r="A4" s="9">
+        <v>201710424</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>201410679</v>
+      <c r="A5" s="9">
+        <v>201710100</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>201411851</v>
+      <c r="A6" s="9">
+        <v>201710453</v>
       </c>
     </row>
   </sheetData>
@@ -458,7 +458,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,10 +487,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>0.29166666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="C2" s="2">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -502,6 +502,150 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>201310916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>201512691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>201410367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>201310584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>201710117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>201412224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>201410821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>201410704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>201412670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>201210843</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>201311694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>201311355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>201412123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>201420066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>201412338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -549,150 +693,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>201311694</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>201311355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>201412123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>201420066</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>201412338</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>201412224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>201410821</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>201410704</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>201412670</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>201210843</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>201310916</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>201512691</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>201410367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>201310584</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>201710117</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
@@ -703,7 +703,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -712,28 +712,28 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>201710447</v>
+      <c r="A2" s="4">
+        <v>201511281</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>201710074</v>
+      <c r="A3" s="4">
+        <v>201511438</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>201710424</v>
+      <c r="A4" s="4">
+        <v>201411491</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>201710100</v>
+      <c r="A5" s="4">
+        <v>201410679</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>201710453</v>
+      <c r="A6" s="5">
+        <v>201411851</v>
       </c>
     </row>
   </sheetData>

--- a/excel/section.xlsx
+++ b/excel/section.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,7 +506,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,7 +698,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/excel/section.xlsx
+++ b/excel/section.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="F22" sheetId="9" r:id="rId1"/>
+    <sheet name="V31" sheetId="11" r:id="rId1"/>
     <sheet name="schedule" sheetId="3" r:id="rId2"/>
-    <sheet name="F21" sheetId="8" r:id="rId3"/>
-    <sheet name="K22" sheetId="7" r:id="rId4"/>
-    <sheet name="K21" sheetId="6" r:id="rId5"/>
-    <sheet name="V22" sheetId="5" r:id="rId6"/>
-    <sheet name="V21" sheetId="4" r:id="rId7"/>
-    <sheet name="G21" sheetId="10" r:id="rId8"/>
-    <sheet name="G22" sheetId="1" r:id="rId9"/>
+    <sheet name="F22" sheetId="9" r:id="rId3"/>
+    <sheet name="F21" sheetId="8" r:id="rId4"/>
+    <sheet name="K22" sheetId="7" r:id="rId5"/>
+    <sheet name="K21" sheetId="6" r:id="rId6"/>
+    <sheet name="V22" sheetId="5" r:id="rId7"/>
+    <sheet name="V21" sheetId="4" r:id="rId8"/>
+    <sheet name="G21" sheetId="10" r:id="rId9"/>
+    <sheet name="G22" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>student number</t>
   </si>
@@ -47,14 +48,14 @@
     <t>t607</t>
   </si>
   <si>
-    <t>Wednesday</t>
+    <t>Thursday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +66,11 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -107,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -127,6 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,6 +414,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>201411823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>201410617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>201410881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>201412224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>201710019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>201710338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>201710050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>201710384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>201710054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -453,55 +639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -549,7 +687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -597,7 +735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -645,7 +783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -693,12 +831,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,7 +879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -787,91 +925,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>201710019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>201710338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>201710050</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>201710384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>201710054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/excel/section.xlsx
+++ b/excel/section.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="V31" sheetId="11" r:id="rId1"/>
+    <sheet name="F22" sheetId="9" r:id="rId1"/>
     <sheet name="schedule" sheetId="3" r:id="rId2"/>
-    <sheet name="F22" sheetId="9" r:id="rId3"/>
-    <sheet name="F21" sheetId="8" r:id="rId4"/>
-    <sheet name="K22" sheetId="7" r:id="rId5"/>
-    <sheet name="K21" sheetId="6" r:id="rId6"/>
-    <sheet name="V22" sheetId="5" r:id="rId7"/>
-    <sheet name="V21" sheetId="4" r:id="rId8"/>
+    <sheet name="F21" sheetId="8" r:id="rId3"/>
+    <sheet name="K22" sheetId="7" r:id="rId4"/>
+    <sheet name="K21" sheetId="6" r:id="rId5"/>
+    <sheet name="V22" sheetId="5" r:id="rId6"/>
+    <sheet name="V21" sheetId="4" r:id="rId7"/>
+    <sheet name="V31" sheetId="11" r:id="rId8"/>
     <sheet name="G21" sheetId="10" r:id="rId9"/>
     <sheet name="G22" sheetId="1" r:id="rId10"/>
   </sheets>
@@ -48,7 +48,7 @@
     <t>t607</t>
   </si>
   <si>
-    <t>Thursday</t>
+    <t>Wednesday</t>
   </si>
 </sst>
 </file>
@@ -414,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -431,28 +431,32 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>201411823</v>
+      <c r="A2" s="9">
+        <v>201710447</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>201410617</v>
+      <c r="A3" s="9">
+        <v>201710074</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <v>201410881</v>
+      <c r="A4" s="9">
+        <v>201710424</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <v>201412224</v>
+        <v>201710100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>201710453</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -547,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,10 +581,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>0.29166666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="C2" s="2">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -592,54 +596,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>201710447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>201710074</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>201710424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>201710100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>201710453</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -687,12 +643,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,12 +691,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,12 +734,15 @@
         <v>201412338</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -831,12 +790,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,6 +835,50 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>201411823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>201410617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>201410881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>201412224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/excel/section.xlsx
+++ b/excel/section.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="F22" sheetId="9" r:id="rId1"/>
+    <sheet name="V31" sheetId="12" r:id="rId1"/>
     <sheet name="schedule" sheetId="3" r:id="rId2"/>
-    <sheet name="F21" sheetId="8" r:id="rId3"/>
-    <sheet name="K22" sheetId="7" r:id="rId4"/>
-    <sheet name="K21" sheetId="6" r:id="rId5"/>
-    <sheet name="V22" sheetId="5" r:id="rId6"/>
-    <sheet name="V21" sheetId="4" r:id="rId7"/>
-    <sheet name="V31" sheetId="11" r:id="rId8"/>
+    <sheet name="F22" sheetId="9" r:id="rId3"/>
+    <sheet name="F21" sheetId="8" r:id="rId4"/>
+    <sheet name="K22" sheetId="7" r:id="rId5"/>
+    <sheet name="K21" sheetId="6" r:id="rId6"/>
+    <sheet name="V22" sheetId="5" r:id="rId7"/>
+    <sheet name="V21" sheetId="4" r:id="rId8"/>
     <sheet name="G21" sheetId="10" r:id="rId9"/>
     <sheet name="G22" sheetId="1" r:id="rId10"/>
   </sheets>
@@ -48,14 +48,14 @@
     <t>t607</t>
   </si>
   <si>
-    <t>Wednesday</t>
+    <t>Friday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,11 +66,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -113,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -133,7 +128,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -431,28 +425,18 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>201710447</v>
+      <c r="A2" s="1">
+        <v>201410881</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>201710074</v>
+      <c r="A3" s="1">
+        <v>201512068</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>201710424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>201710100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>201710453</v>
+      <c r="A4" s="1">
+        <v>201512491</v>
       </c>
     </row>
   </sheetData>
@@ -551,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.375</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.45833333333333331</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -596,6 +580,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>201710447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>201710074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>201710424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>201710100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>201710453</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -643,7 +675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -691,7 +723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -742,7 +774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -790,7 +822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -838,56 +870,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>201411823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>201410617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <v>201410881</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>201412224</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/excel/section.xlsx
+++ b/excel/section.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="V31" sheetId="12" r:id="rId1"/>
-    <sheet name="schedule" sheetId="3" r:id="rId2"/>
-    <sheet name="F22" sheetId="9" r:id="rId3"/>
-    <sheet name="F21" sheetId="8" r:id="rId4"/>
-    <sheet name="K22" sheetId="7" r:id="rId5"/>
-    <sheet name="K21" sheetId="6" r:id="rId6"/>
-    <sheet name="V22" sheetId="5" r:id="rId7"/>
-    <sheet name="V21" sheetId="4" r:id="rId8"/>
+    <sheet name="V23" sheetId="4" r:id="rId1"/>
+    <sheet name="V31" sheetId="12" r:id="rId2"/>
+    <sheet name="schedule" sheetId="3" r:id="rId3"/>
+    <sheet name="F22" sheetId="9" r:id="rId4"/>
+    <sheet name="F21" sheetId="8" r:id="rId5"/>
+    <sheet name="K22" sheetId="7" r:id="rId6"/>
+    <sheet name="K21" sheetId="6" r:id="rId7"/>
+    <sheet name="V22" sheetId="5" r:id="rId8"/>
     <sheet name="G21" sheetId="10" r:id="rId9"/>
     <sheet name="G22" sheetId="1" r:id="rId10"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>student number</t>
   </si>
@@ -50,6 +50,9 @@
   <si>
     <t>Friday</t>
   </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
 </sst>
 </file>
 
@@ -70,7 +73,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +98,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -108,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -128,6 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,15 +418,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -425,18 +435,29 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="11">
         <v>201410881</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="11">
         <v>201512068</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="11">
         <v>201512491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -532,6 +553,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>201410881</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>201512068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>201512491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -579,7 +638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -627,7 +686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -675,7 +734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -723,7 +782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -774,7 +833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -815,54 +874,6 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>201410617</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>201511281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>201511438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>201411491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>201410679</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>201411851</v>
       </c>
     </row>
   </sheetData>

--- a/excel/section.xlsx
+++ b/excel/section.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="V23" sheetId="4" r:id="rId1"/>
-    <sheet name="V31" sheetId="12" r:id="rId2"/>
-    <sheet name="schedule" sheetId="3" r:id="rId3"/>
-    <sheet name="F22" sheetId="9" r:id="rId4"/>
-    <sheet name="F21" sheetId="8" r:id="rId5"/>
-    <sheet name="K22" sheetId="7" r:id="rId6"/>
-    <sheet name="K21" sheetId="6" r:id="rId7"/>
-    <sheet name="V22" sheetId="5" r:id="rId8"/>
-    <sheet name="G21" sheetId="10" r:id="rId9"/>
+    <sheet name="G21" sheetId="10" r:id="rId1"/>
+    <sheet name="schedule" sheetId="3" r:id="rId2"/>
+    <sheet name="K21" sheetId="6" r:id="rId3"/>
+    <sheet name="V23" sheetId="4" r:id="rId4"/>
+    <sheet name="V31" sheetId="12" r:id="rId5"/>
+    <sheet name="F22" sheetId="9" r:id="rId6"/>
+    <sheet name="F21" sheetId="8" r:id="rId7"/>
+    <sheet name="K22" sheetId="7" r:id="rId8"/>
+    <sheet name="V22" sheetId="5" r:id="rId9"/>
     <sheet name="G22" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -418,15 +418,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -435,29 +435,28 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>201410881</v>
+      <c r="A2" s="10">
+        <v>201710365</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>201512068</v>
+      <c r="A3" s="10">
+        <v>201011240</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <v>201512491</v>
+      <c r="A4" s="10">
+        <v>201710347</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="10">
+        <v>201710362</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A6" s="10">
+        <v>201710368</v>
       </c>
     </row>
   </sheetData>
@@ -554,6 +553,154 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>201311694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>201311355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>201412123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>201420066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>201412338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>201410881</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>201512068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>201512491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -590,55 +737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -686,7 +785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -734,7 +833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -782,58 +881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>201311694</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>201311355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>201412123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>201420066</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>201412338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -879,52 +927,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>201710365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>201011240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>201710347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>201710362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>201710368</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/excel/section.xlsx
+++ b/excel/section.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="G21" sheetId="10" r:id="rId1"/>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/excel/section.xlsx
+++ b/excel/section.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="G21" sheetId="10" r:id="rId1"/>
     <sheet name="schedule" sheetId="3" r:id="rId2"/>
     <sheet name="K21" sheetId="6" r:id="rId3"/>
-    <sheet name="V23" sheetId="4" r:id="rId4"/>
-    <sheet name="V31" sheetId="12" r:id="rId5"/>
-    <sheet name="F22" sheetId="9" r:id="rId6"/>
-    <sheet name="F21" sheetId="8" r:id="rId7"/>
-    <sheet name="K22" sheetId="7" r:id="rId8"/>
-    <sheet name="V22" sheetId="5" r:id="rId9"/>
-    <sheet name="G22" sheetId="1" r:id="rId10"/>
+    <sheet name="V21" sheetId="12" r:id="rId4"/>
+    <sheet name="F22" sheetId="9" r:id="rId5"/>
+    <sheet name="F21" sheetId="8" r:id="rId6"/>
+    <sheet name="K22" sheetId="7" r:id="rId7"/>
+    <sheet name="V22" sheetId="5" r:id="rId8"/>
+    <sheet name="G22" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>student number</t>
   </si>
@@ -50,9 +49,6 @@
   <si>
     <t>Friday</t>
   </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
 </sst>
 </file>
 
@@ -73,7 +69,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,12 +94,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -117,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -137,7 +127,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,54 +409,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>201710365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>201011240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>201710347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>201710362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>201710368</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
@@ -483,68 +424,29 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>201710019</v>
+      <c r="A2" s="10">
+        <v>201710365</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>201710338</v>
+      <c r="A3" s="10">
+        <v>201011240</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>201710050</v>
+      <c r="A4" s="10">
+        <v>201710347</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>201710384</v>
+      <c r="A5" s="10">
+        <v>201710362</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>201710054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+      <c r="A6" s="10">
+        <v>201710368</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -652,59 +554,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>201410881</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>201512068</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <v>201512491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,18 +571,28 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>201410881</v>
+      <c r="A2" s="4">
+        <v>201511281</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>201512068</v>
+      <c r="A3" s="4">
+        <v>201511438</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>201512491</v>
+      <c r="A4" s="4">
+        <v>201411491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>201410679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>201411851</v>
       </c>
     </row>
   </sheetData>
@@ -737,7 +600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -785,7 +648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -833,7 +696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -881,7 +744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -927,4 +790,91 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>201710019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>201710338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>201710050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>201710384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>201710054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>